--- a/data/input/absenteeism_data_47.xlsx
+++ b/data/input/absenteeism_data_47.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13068</v>
+        <v>83810</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabriel Almeida</t>
+          <t>Thiago Ramos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>10858.02</v>
+        <v>6628.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66997</v>
+        <v>19713</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Julia Freitas</t>
+          <t>Dr. Guilherme Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,26 +519,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>4691.87</v>
+        <v>4487.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66435</v>
+        <v>78134</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diego Castro</t>
+          <t>Igor Monteiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,60 +548,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>7656.26</v>
+        <v>7504.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24774</v>
+        <v>3337</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gabriela da Rocha</t>
+          <t>Dr. Francisco Campos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>9773.809999999999</v>
+        <v>7400.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35343</v>
+        <v>25769</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lívia Cardoso</t>
+          <t>Isis Gomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>11034.21</v>
+        <v>7607.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>48486</v>
+        <v>58424</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Evelyn Monteiro</t>
+          <t>Guilherme da Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>12423.81</v>
+        <v>4270.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79903</v>
+        <v>17902</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Juan Duarte</t>
+          <t>Evelyn Nogueira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>5847.07</v>
+        <v>10896.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>76355</v>
+        <v>1516</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bruno Costela</t>
+          <t>Nina Moraes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,31 +693,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45097</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>7585.45</v>
+        <v>10649.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96784</v>
+        <v>4387</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Júlia Viana</t>
+          <t>Melissa Alves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>6904.41</v>
+        <v>5422.81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99329</v>
+        <v>3435</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Calebe Pereira</t>
+          <t>Maria Vitória Jesus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>10901.51</v>
+        <v>6056.38</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_47.xlsx
+++ b/data/input/absenteeism_data_47.xlsx
@@ -476,219 +476,219 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>83810</v>
+        <v>82899</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thiago Ramos</t>
+          <t>Lorena Moraes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>6628.25</v>
+        <v>10771.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19713</v>
+        <v>50613</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Guilherme Barbosa</t>
+          <t>Maria Eduarda Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>4487.69</v>
+        <v>8245.559999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78134</v>
+        <v>55990</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Igor Monteiro</t>
+          <t>Vitor Hugo Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>7504.89</v>
+        <v>9140.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3337</v>
+        <v>26547</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Francisco Campos</t>
+          <t>Daniela Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>7400.67</v>
+        <v>8917.700000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25769</v>
+        <v>30677</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isis Gomes</t>
+          <t>Luna da Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>7607.21</v>
+        <v>6022.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>58424</v>
+        <v>83966</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Guilherme da Costa</t>
+          <t>Lucca Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>4270.06</v>
+        <v>11875.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17902</v>
+        <v>94188</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Evelyn Nogueira</t>
+          <t>Rafael da Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>10896.17</v>
+        <v>9216.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1516</v>
+        <v>50584</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nina Moraes</t>
+          <t>Breno Pereira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>10649.97</v>
+        <v>6947.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4387</v>
+        <v>65257</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Melissa Alves</t>
+          <t>Isadora Martins</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>5422.81</v>
+        <v>11036.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3435</v>
+        <v>21992</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Vitória Jesus</t>
+          <t>Sofia Ramos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>6056.38</v>
+        <v>9672.379999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_47.xlsx
+++ b/data/input/absenteeism_data_47.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82899</v>
+        <v>2076</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lorena Moraes</t>
+          <t>Alexia Nunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>10771.69</v>
+        <v>3275.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50613</v>
+        <v>89147</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Eduarda Rocha</t>
+          <t>Daniela Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>8245.559999999999</v>
+        <v>5496.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55990</v>
+        <v>46008</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitor Hugo Pereira</t>
+          <t>Caroline Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>9140.18</v>
+        <v>8244.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26547</v>
+        <v>83946</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daniela Ribeiro</t>
+          <t>Sra. Mirella Ferreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45098</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>8917.700000000001</v>
+        <v>6685.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30677</v>
+        <v>89518</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luna da Rocha</t>
+          <t>Brenda Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>6022.75</v>
+        <v>7911.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>83966</v>
+        <v>14352</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lucca Costa</t>
+          <t>Pedro Lucas Lima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>11875.26</v>
+        <v>4262.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94188</v>
+        <v>7035</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rafael da Rosa</t>
+          <t>Cauê Dias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>9216.9</v>
+        <v>10056.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50584</v>
+        <v>35955</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Breno Pereira</t>
+          <t>Luiz Henrique Souza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>6947.44</v>
+        <v>11945.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65257</v>
+        <v>37633</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isadora Martins</t>
+          <t>João Santos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45102</v>
       </c>
       <c r="G10" t="n">
-        <v>11036.01</v>
+        <v>5634.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21992</v>
+        <v>70256</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sofia Ramos</t>
+          <t>Otávio Araújo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>9672.379999999999</v>
+        <v>4530.74</v>
       </c>
     </row>
   </sheetData>
